--- a/RawMaterials/data/Aitken_Bemmels _2015_Dryad_dataset_ALL.xlsx
+++ b/RawMaterials/data/Aitken_Bemmels _2015_Dryad_dataset_ALL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DC684B-E28F-4536-95D3-FC9D443201DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2F960D-EDBB-4938-A107-0C9E17C7C2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="6" r:id="rId1"/>
@@ -4263,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -7946,7 +7946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
